--- a/uploads/bulk_skeletons/customer_product_example.xlsx
+++ b/uploads/bulk_skeletons/customer_product_example.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0A2CE0-9E63-4B56-9122-5CEAAD87D2D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>title</t>
   </si>
@@ -36,9 +35,6 @@
   </si>
   <si>
     <t>images</t>
-  </si>
-  <si>
-    <t>http://digitcodes.com/wp-content/uploads/2013/02/image-placeholder.png,http://sifatit.com/wp-content/uploads/2012/07/dummy.jpg</t>
   </si>
   <si>
     <t>published</t>
@@ -77,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,8 +118,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -139,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,9 +175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,26 +210,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,26 +245,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,27 +453,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -520,21 +482,21 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -543,22 +505,17 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>